--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,18 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -70,334 +64,325 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>loves</t>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>wedding</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>cooks</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>handy</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>super</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>cream</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>dough</t>
+    <t>easy</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>simple</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>maker</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>simple</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>dish</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>fast</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>time</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -761,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,13 +815,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -880,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5925925925925926</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -898,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9473684210526315</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.45</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9354838709677419</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3773584905660378</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2945736434108527</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2307692307692308</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,119 +1083,71 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.855072463768116</v>
+      </c>
+      <c r="L8">
+        <v>59</v>
+      </c>
+      <c r="M8">
+        <v>59</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.85</v>
+      </c>
+      <c r="L9">
+        <v>17</v>
+      </c>
+      <c r="M9">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8">
-        <v>0.8478260869565217</v>
-      </c>
-      <c r="L8">
-        <v>39</v>
-      </c>
-      <c r="M8">
-        <v>39</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>77</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L9">
-        <v>22</v>
-      </c>
-      <c r="M9">
-        <v>22</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1027027027027027</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>166</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.8452012383900929</v>
+        <v>0.8436532507739938</v>
       </c>
       <c r="L10">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M10">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1253,16 +1190,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M14">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6888888888888889</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6711864406779661</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="L16">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M16">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>795</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>795</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.647887323943662</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6461538461538462</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1482,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6438356164383562</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1513,16 +1450,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1534,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6163723916532905</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L23">
-        <v>768</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>768</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1560,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>478</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1586,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6122448979591837</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1612,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6041666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1638,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1664,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5857142857142857</v>
+        <v>0.578125</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1690,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5833333333333334</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1716,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5771428571428572</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1742,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5480769230769231</v>
+        <v>0.5625</v>
       </c>
       <c r="L31">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1768,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5263157894736842</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1794,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5230769230769231</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1820,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.5209580838323353</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L34">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="M34">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1846,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.515625</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1872,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.5151515151515151</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1898,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.5079365079365079</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1924,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.5060240963855421</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1950,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.4901960784313725</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1976,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.4871794871794872</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="L40">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2002,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.4615384615384616</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2028,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.4489795918367347</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2054,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.4444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2080,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.4135338345864661</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L44">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2106,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.4078947368421053</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2132,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.4036144578313253</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L46">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2158,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.4</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2184,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.3947368421052632</v>
+        <v>0.39</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2210,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.3928571428571428</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2236,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50">
+        <v>0.3855421686746988</v>
+      </c>
+      <c r="L50">
         <v>64</v>
       </c>
-      <c r="K50">
-        <v>0.39</v>
-      </c>
-      <c r="L50">
-        <v>39</v>
-      </c>
       <c r="M50">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2262,21 +2199,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.3770491803278688</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2288,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.3658536585365854</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2314,21 +2251,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.3492063492063492</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2340,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.3454545454545455</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2366,21 +2303,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.3357843137254902</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L55">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2392,21 +2329,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>271</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.3308270676691729</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L56">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="M56">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2418,21 +2355,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>89</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.3260869565217391</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2444,21 +2381,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.3260869565217391</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2470,21 +2407,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.3243243243243243</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L59">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M59">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2496,21 +2433,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.3229571984435798</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L60">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="M60">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2522,21 +2459,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>174</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61">
+        <v>0.2918287937743191</v>
+      </c>
+      <c r="L61">
         <v>75</v>
       </c>
-      <c r="K61">
-        <v>0.3191489361702128</v>
-      </c>
-      <c r="L61">
-        <v>15</v>
-      </c>
       <c r="M61">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2548,21 +2485,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>32</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.3166666666666667</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2574,21 +2511,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.3088235294117647</v>
+        <v>0.2780821917808219</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2600,21 +2537,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>47</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.3064516129032258</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2626,21 +2563,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.2871287128712871</v>
+        <v>0.2443487621097955</v>
       </c>
       <c r="L65">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="M65">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2652,21 +2589,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>72</v>
+        <v>702</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>0.2805755395683453</v>
+        <v>0.2440191387559809</v>
       </c>
       <c r="L66">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M66">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2678,21 +2615,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>100</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.2767123287671233</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L67">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2704,15 +2641,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>528</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>0.2638888888888889</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L68">
         <v>19</v>
@@ -2730,21 +2667,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L69">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2756,21 +2693,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K70">
-        <v>0.2465016146393972</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L70">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2782,21 +2719,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>700</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K71">
-        <v>0.2344497607655502</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="L71">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M71">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2808,21 +2745,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K72">
-        <v>0.2251655629139073</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L72">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2834,21 +2771,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K73">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2860,21 +2797,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>0.2083333333333333</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2886,21 +2823,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>57</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K75">
-        <v>0.2080536912751678</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L75">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M75">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2912,21 +2849,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>118</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K76">
-        <v>0.2068965517241379</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L76">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2938,21 +2875,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>253</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K77">
-        <v>0.2018348623853211</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2964,21 +2901,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1847826086956522</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L78">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2990,21 +2927,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K79">
-        <v>0.1809523809523809</v>
+        <v>0.1682119205298013</v>
       </c>
       <c r="L79">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M79">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3016,21 +2953,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>86</v>
+        <v>628</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K80">
-        <v>0.1807228915662651</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3042,21 +2979,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K81">
-        <v>0.1801801801801802</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3068,21 +3005,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K82">
-        <v>0.1801324503311258</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="L82">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M82">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3094,41 +3031,41 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>619</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K83">
-        <v>0.1785714285714286</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L83">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N83">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>92</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K84">
-        <v>0.1764705882352941</v>
+        <v>0.15</v>
       </c>
       <c r="L84">
         <v>15</v>
@@ -3146,21 +3083,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K85">
-        <v>0.1687979539641944</v>
+        <v>0.149616368286445</v>
       </c>
       <c r="L85">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="M85">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3172,21 +3109,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>650</v>
+        <v>665</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K86">
-        <v>0.1639344262295082</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3198,47 +3135,47 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>102</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K87">
-        <v>0.1615384615384615</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L87">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M87">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>109</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K88">
-        <v>0.1515151515151515</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3250,21 +3187,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>84</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K89">
-        <v>0.1411042944785276</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L89">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3276,21 +3213,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K90">
-        <v>0.1367521367521368</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L90">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3302,21 +3239,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>101</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K91">
-        <v>0.134020618556701</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="L91">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M91">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3328,47 +3265,47 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>252</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K92">
-        <v>0.1297297297297297</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L92">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M92">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N92">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>322</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K93">
-        <v>0.1280788177339902</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L93">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M93">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3380,21 +3317,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>177</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K94">
-        <v>0.1280487804878049</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L94">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M94">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3406,21 +3343,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K95">
-        <v>0.121654501216545</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L95">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M95">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3432,21 +3369,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>361</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K96">
-        <v>0.1186440677966102</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L96">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M96">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3458,21 +3395,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>156</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K97">
-        <v>0.1090909090909091</v>
+        <v>0.1068181818181818</v>
       </c>
       <c r="L97">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M97">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3484,21 +3421,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>147</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K98">
-        <v>0.1025641025641026</v>
+        <v>0.1</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M98">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3510,21 +3447,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>140</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K99">
-        <v>0.09663865546218488</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L99">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3536,21 +3473,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>215</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K100">
-        <v>0.09615384615384616</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L100">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M100">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3562,21 +3499,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>188</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K101">
-        <v>0.09318181818181819</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L101">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M101">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3588,21 +3525,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>399</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K102">
-        <v>0.09307875894988067</v>
+        <v>0.0883054892601432</v>
       </c>
       <c r="L102">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M102">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3614,21 +3551,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K103">
-        <v>0.09225092250922509</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L103">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M103">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3640,21 +3577,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K104">
-        <v>0.08888888888888889</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="L104">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M104">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3666,21 +3603,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K105">
-        <v>0.08771929824561403</v>
+        <v>0.06529850746268656</v>
       </c>
       <c r="L105">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M105">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3692,47 +3629,47 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>416</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K106">
-        <v>0.07661290322580645</v>
+        <v>0.06456241032998565</v>
       </c>
       <c r="L106">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M106">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>229</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K107">
-        <v>0.06876790830945559</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L107">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M107">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3744,21 +3681,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>650</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K108">
-        <v>0.06598984771573604</v>
+        <v>0.04822335025380711</v>
       </c>
       <c r="L108">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M108">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3770,163 +3707,85 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K109">
-        <v>0.06535947712418301</v>
+        <v>0.03690036900369004</v>
       </c>
       <c r="L109">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M109">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="N109">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>1001</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K110">
-        <v>0.04644808743169399</v>
+        <v>0.0345489443378119</v>
       </c>
       <c r="L110">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M110">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>349</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K111">
-        <v>0.04106280193236715</v>
+        <v>0.0259515570934256</v>
       </c>
       <c r="L111">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M111">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="112" spans="10:17">
-      <c r="J112" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K112">
-        <v>0.03838771593090211</v>
-      </c>
-      <c r="L112">
-        <v>20</v>
-      </c>
-      <c r="M112">
-        <v>21</v>
-      </c>
-      <c r="N112">
-        <v>0.95</v>
-      </c>
-      <c r="O112">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P112" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q112">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="113" spans="10:17">
-      <c r="J113" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K113">
-        <v>0.03690036900369004</v>
-      </c>
-      <c r="L113">
-        <v>20</v>
-      </c>
-      <c r="M113">
-        <v>20</v>
-      </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K114">
-        <v>0.02422145328719723</v>
-      </c>
-      <c r="L114">
-        <v>28</v>
-      </c>
-      <c r="M114">
-        <v>29</v>
-      </c>
-      <c r="N114">
-        <v>0.97</v>
-      </c>
-      <c r="O114">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
